--- a/assets/docs/product_listing.xlsx
+++ b/assets/docs/product_listing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -30,6 +30,72 @@
   </si>
   <si>
     <t>Agent Name</t>
+  </si>
+  <si>
+    <t>adil</t>
+  </si>
+  <si>
+    <t>9967618925</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>adilk90@gmail.com</t>
+  </si>
+  <si>
+    <t>Premchand</t>
+  </si>
+  <si>
+    <t>adil11</t>
+  </si>
+  <si>
+    <t>2233221122</t>
+  </si>
+  <si>
+    <t>adil12</t>
+  </si>
+  <si>
+    <t>9988778899</t>
+  </si>
+  <si>
+    <t>adil15</t>
+  </si>
+  <si>
+    <t>dd15@gmail.com</t>
+  </si>
+  <si>
+    <t>adil16</t>
+  </si>
+  <si>
+    <t>adil18</t>
+  </si>
+  <si>
+    <t>adilashraf03@gmail.com</t>
+  </si>
+  <si>
+    <t>adilk9023</t>
+  </si>
+  <si>
+    <t>adilk9023@gmail.com</t>
+  </si>
+  <si>
+    <t>adil25</t>
+  </si>
+  <si>
+    <t>9988999925</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>adil25@gmail.com</t>
+  </si>
+  <si>
+    <t>adil26</t>
+  </si>
+  <si>
+    <t>9988999926</t>
   </si>
 </sst>
 </file>
@@ -371,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,6 +460,381 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
